--- a/CBS/ChristieGardensSchedule.xlsx
+++ b/CBS/ChristieGardensSchedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28540" windowHeight="22960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,13 +184,13 @@
     <t>P135</t>
   </si>
   <si>
-    <t>WiFi</t>
-  </si>
-  <si>
     <t>Setup CBS tasks on tablets</t>
   </si>
   <si>
-    <t>proximity of office to large room</t>
+    <t>office is two floors up from large space</t>
+  </si>
+  <si>
+    <t>come up with raffle prize</t>
   </si>
 </sst>
 </file>
@@ -380,8 +380,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -438,7 +440,7 @@
     <xf numFmtId="20" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -452,6 +454,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -465,6 +468,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1362,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1373,12 +1377,12 @@
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="B1" s="22">
         <v>43136</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" s="3">
         <v>0.375</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -1452,11 +1456,8 @@
       <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -1471,11 +1472,11 @@
       <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="3">
         <v>0.4375</v>
       </c>
@@ -1484,11 +1485,11 @@
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17">
       <c r="A8" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -1499,8 +1500,11 @@
       <c r="H8" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17">
       <c r="A10" s="3">
         <v>0.5</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17">
       <c r="A11" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -1543,13 +1547,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17">
       <c r="A12" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17">
       <c r="A13" s="25">
         <v>6.25E-2</v>
       </c>
@@ -1569,7 +1573,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:17">
       <c r="A14" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1583,7 +1587,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:17">
       <c r="A15" s="3">
         <v>0.10416666666666667</v>
       </c>
@@ -1607,7 +1611,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:17">
       <c r="A16" s="3">
         <v>0.125</v>
       </c>

--- a/CBS/ChristieGardensSchedule.xlsx
+++ b/CBS/ChristieGardensSchedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
   <si>
     <t>** ASSUMING 2 RESEARCHERS</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>come up with raffle prize</t>
+  </si>
+  <si>
+    <t>MMSE/moca</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1763,9 +1766,7 @@
       <c r="A26" s="3">
         <v>0.375</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
         <v>14</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>

--- a/CBS/ChristieGardensSchedule.xlsx
+++ b/CBS/ChristieGardensSchedule.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet3!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="63">
   <si>
     <t>** ASSUMING 2 RESEARCHERS</t>
   </si>
@@ -194,13 +203,28 @@
   </si>
   <si>
     <t>MMSE/moca</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Session 1 Time</t>
+  </si>
+  <si>
+    <t>Session 2 Time</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +285,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -306,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -382,6 +421,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -414,7 +468,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,6 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -476,6 +534,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -807,9 +873,9 @@
       <selection activeCell="A3" sqref="A3:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -828,7 +894,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -873,7 +939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.375</v>
       </c>
@@ -894,7 +960,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -921,7 +987,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -946,7 +1012,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.4375</v>
       </c>
@@ -967,7 +1033,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -986,7 +1052,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -1009,7 +1075,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.5</v>
       </c>
@@ -1036,7 +1102,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -1061,7 +1127,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -1082,7 +1148,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6.25E-2</v>
       </c>
@@ -1101,7 +1167,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1124,7 +1190,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.10416666666666667</v>
       </c>
@@ -1151,7 +1217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.125</v>
       </c>
@@ -1176,7 +1242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.14583333333333334</v>
       </c>
@@ -1197,7 +1263,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.16666666666666666</v>
       </c>
@@ -1220,7 +1286,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.1875</v>
       </c>
@@ -1243,7 +1309,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.20833333333333334</v>
       </c>
@@ -1266,7 +1332,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.22916666666666666</v>
       </c>
@@ -1289,7 +1355,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.25</v>
       </c>
@@ -1312,7 +1378,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.27083333333333331</v>
       </c>
@@ -1335,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -1371,21 +1437,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="22">
         <v>43136</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.375</v>
       </c>
@@ -1443,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -1460,7 +1526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -1479,7 +1545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.4375</v>
       </c>
@@ -1492,7 +1558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -1507,7 +1573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -1524,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.5</v>
       </c>
@@ -1540,7 +1606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -1550,13 +1616,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>6.25E-2</v>
       </c>
@@ -1576,7 +1642,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1590,7 +1656,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.10416666666666667</v>
       </c>
@@ -1614,7 +1680,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.125</v>
       </c>
@@ -1636,7 +1702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.14583333333333334</v>
       </c>
@@ -1654,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.16666666666666666</v>
       </c>
@@ -1670,7 +1736,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.1875</v>
       </c>
@@ -1681,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.20833333333333334</v>
       </c>
@@ -1692,7 +1758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.22916666666666666</v>
       </c>
@@ -1706,16 +1772,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="22">
         <v>43137</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -1762,7 +1828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0.375</v>
       </c>
@@ -1771,7 +1837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -1788,7 +1854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -1804,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>0.4375</v>
       </c>
@@ -1814,7 +1880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -1826,7 +1892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -1843,7 +1909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>0.5</v>
       </c>
@@ -1859,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -1869,13 +1935,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>6.25E-2</v>
       </c>
@@ -1895,7 +1961,7 @@
       <c r="O35" s="26"/>
       <c r="P35" s="26"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1909,7 +1975,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>0.10416666666666667</v>
       </c>
@@ -1933,7 +1999,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>0.125</v>
       </c>
@@ -1955,7 +2021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>0.14583333333333334</v>
       </c>
@@ -1973,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>0.16666666666666666</v>
       </c>
@@ -1992,7 +2058,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="20"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>0.1875</v>
       </c>
@@ -2003,7 +2069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>0.20833333333333334</v>
       </c>
@@ -2014,7 +2080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>0.22916666666666666</v>
       </c>
@@ -2025,12 +2091,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45" s="22">
         <v>43138</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>49</v>
@@ -2058,7 +2124,7 @@
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2076,7 +2142,7 @@
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>0.375</v>
       </c>
@@ -2097,7 +2163,7 @@
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -2116,7 +2182,7 @@
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -2132,7 +2198,7 @@
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>0.4375</v>
       </c>
@@ -2151,7 +2217,7 @@
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -2172,7 +2238,7 @@
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2192,7 +2258,7 @@
       <c r="O53" s="23"/>
       <c r="P53" s="23"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.5</v>
       </c>
@@ -2214,7 +2280,7 @@
       <c r="O54" s="23"/>
       <c r="P54" s="23"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -2236,7 +2302,7 @@
       <c r="O55" s="23"/>
       <c r="P55" s="23"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -2255,7 +2321,7 @@
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>6.25E-2</v>
       </c>
@@ -2277,7 +2343,7 @@
       <c r="O57" s="23"/>
       <c r="P57" s="23"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2299,7 +2365,7 @@
       <c r="O58" s="23"/>
       <c r="P58" s="23"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>0.10416666666666667</v>
       </c>
@@ -2318,7 +2384,7 @@
       <c r="O59" s="23"/>
       <c r="P59" s="23"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>0.125</v>
       </c>
@@ -2340,7 +2406,7 @@
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>0.14583333333333334</v>
       </c>
@@ -2362,7 +2428,7 @@
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>0.16666666666666666</v>
       </c>
@@ -2382,7 +2448,7 @@
       <c r="O62" s="23"/>
       <c r="P62" s="23"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0.1875</v>
       </c>
@@ -2406,7 +2472,7 @@
       <c r="O63" s="23"/>
       <c r="P63" s="23"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0.20833333333333334</v>
       </c>
@@ -2430,7 +2496,7 @@
       <c r="O64" s="23"/>
       <c r="P64" s="23"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>0.22916666666666666</v>
       </c>
@@ -2452,7 +2518,7 @@
       <c r="O65" s="23"/>
       <c r="P65" s="23"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G66" s="24"/>
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
@@ -2464,7 +2530,7 @@
       <c r="O66" s="24"/>
       <c r="P66" s="24"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
@@ -2476,7 +2542,7 @@
       <c r="O67" s="24"/>
       <c r="P67" s="24"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24"/>
@@ -2488,7 +2554,7 @@
       <c r="O68" s="24"/>
       <c r="P68" s="24"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
@@ -2509,4 +2575,545 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="28" customWidth="1"/>
+    <col min="2" max="3" width="14.375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="28">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CBS/ChristieGardensSchedule.xlsx
+++ b/CBS/ChristieGardensSchedule.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12000" yWindow="6520" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
   <si>
     <t>** ASSUMING 2 RESEARCHERS</t>
   </si>
@@ -79,27 +80,6 @@
     <t>MOCA</t>
   </si>
   <si>
-    <t>P101</t>
-  </si>
-  <si>
-    <t>P102</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>P104</t>
-  </si>
-  <si>
-    <t>P105</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
-    <t>P107</t>
-  </si>
-  <si>
     <t>P108</t>
   </si>
   <si>
@@ -194,19 +174,42 @@
   </si>
   <si>
     <t>MMSE/moca</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>MMSE/MoCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +262,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -383,8 +392,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,7 +456,7 @@
     <xf numFmtId="20" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -458,6 +471,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -472,6 +487,8 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1369,10 +1386,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1387,61 +1407,57 @@
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3">
         <v>0.375</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3">
@@ -1453,12 +1469,8 @@
       <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3">
@@ -1472,11 +1484,9 @@
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1489,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1497,14 +1507,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1517,12 +1523,8 @@
       <c r="H9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3">
@@ -1536,9 +1538,7 @@
       <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3">
@@ -1580,12 +1580,8 @@
       <c r="A14" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1595,10 +1591,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>13</v>
@@ -1606,12 +1602,8 @@
       <c r="M15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:17">
@@ -1619,10 +1611,10 @@
         <v>0.125</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="21"/>
@@ -1632,19 +1624,17 @@
       <c r="O16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3">
         <v>0.14583333333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1659,10 +1649,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1675,10 +1665,10 @@
         <v>0.1875</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1686,10 +1676,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1697,10 +1687,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O21" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s">
         <v>14</v>
@@ -1717,49 +1707,49 @@
     </row>
     <row r="24" spans="1:16">
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="J24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" t="s">
+      <c r="K24" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
+      <c r="L24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" t="s">
+      <c r="M24" t="s">
         <v>38</v>
       </c>
-      <c r="G24" t="s">
+      <c r="N24" t="s">
         <v>39</v>
       </c>
-      <c r="H24" t="s">
+      <c r="O24" t="s">
         <v>40</v>
       </c>
-      <c r="I24" t="s">
+      <c r="P24" t="s">
         <v>41</v>
-      </c>
-      <c r="J24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1914,7 +1904,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -2033,19 +2023,19 @@
     <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
@@ -2501,6 +2491,28 @@
       <c r="P69" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
